--- a/output_data/Small_sample.xlsx
+++ b/output_data/Small_sample.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C84F4-E431-4A60-9AB8-85C03F24E6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282E2C06-1773-4BB4-98C3-B9C0657692B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FacilityMaster" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -793,21 +782,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -842,7 +831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -877,7 +866,7 @@
         <v>467990</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -912,7 +901,7 @@
         <v>429757</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -947,7 +936,7 @@
         <v>463360</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -982,7 +971,7 @@
         <v>441407</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1006,7 @@
         <v>405739</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1061,23 +1050,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A84AFAF-29BC-496F-B248-7079C4ED7312}">
   <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1151,7 @@
         <v>1110</v>
       </c>
       <c r="L2" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -1177,7 +1166,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1201,7 @@
         <v>1140</v>
       </c>
       <c r="L3" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -1227,7 +1216,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1251,7 @@
         <v>1110</v>
       </c>
       <c r="L4" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
@@ -1277,7 +1266,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1301,7 @@
         <v>1080</v>
       </c>
       <c r="L5" s="5">
-        <v>180</v>
+        <v>1620</v>
       </c>
       <c r="M5" t="s">
         <v>24</v>
@@ -1327,7 +1316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1366,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1412,7 +1401,7 @@
         <v>1170</v>
       </c>
       <c r="L7" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M7" t="s">
         <v>24</v>
@@ -1427,7 +1416,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1451,7 @@
         <v>1080</v>
       </c>
       <c r="L8" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
@@ -1477,7 +1466,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1501,7 @@
         <v>1110</v>
       </c>
       <c r="L9" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M9" t="s">
         <v>25</v>
@@ -1527,7 +1516,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1562,7 +1551,7 @@
         <v>1080</v>
       </c>
       <c r="L10" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M10" t="s">
         <v>24</v>
@@ -1577,7 +1566,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1612,7 +1601,7 @@
         <v>1080</v>
       </c>
       <c r="L11" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M11" t="s">
         <v>25</v>
@@ -1627,7 +1616,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1651,7 @@
         <v>1110</v>
       </c>
       <c r="L12" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1677,7 +1666,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1727,7 +1716,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1751,7 @@
         <v>1080</v>
       </c>
       <c r="L14" s="5">
-        <v>345</v>
+        <v>1785</v>
       </c>
       <c r="M14" t="s">
         <v>24</v>
@@ -1777,7 +1766,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1812,7 +1801,7 @@
         <v>1035</v>
       </c>
       <c r="L15" s="5">
-        <v>300</v>
+        <v>1740</v>
       </c>
       <c r="M15" t="s">
         <v>24</v>
@@ -1827,7 +1816,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1851,7 @@
         <v>1140</v>
       </c>
       <c r="L16" s="5">
-        <v>120</v>
+        <v>1560</v>
       </c>
       <c r="M16" t="s">
         <v>25</v>
@@ -1877,7 +1866,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +1901,7 @@
         <v>1170</v>
       </c>
       <c r="L17" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M17" t="s">
         <v>25</v>
@@ -1927,7 +1916,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +1951,7 @@
         <v>1080</v>
       </c>
       <c r="L18" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M18" t="s">
         <v>24</v>
@@ -1977,7 +1966,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2001,7 @@
         <v>1290</v>
       </c>
       <c r="L19" s="5">
-        <v>270</v>
+        <v>1710</v>
       </c>
       <c r="M19" t="s">
         <v>25</v>
@@ -2027,7 +2016,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2112,7 +2101,7 @@
         <v>1080</v>
       </c>
       <c r="L21" s="5">
-        <v>30</v>
+        <v>1470</v>
       </c>
       <c r="M21" t="s">
         <v>25</v>
@@ -2127,7 +2116,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2151,7 @@
         <v>1080</v>
       </c>
       <c r="L22" s="5">
-        <v>240</v>
+        <v>1680</v>
       </c>
       <c r="M22" t="s">
         <v>25</v>
@@ -2177,271 +2166,271 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
     </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
     </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
     </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
     </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
     </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
     </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
     </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
     </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
@@ -2460,12 +2449,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -2479,7 +2468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2493,7 +2482,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2507,7 +2496,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2521,7 +2510,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2535,7 +2524,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2549,7 +2538,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2563,7 +2552,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2577,7 +2566,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2591,7 +2580,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2605,7 +2594,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2619,7 +2608,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2633,7 +2622,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>120</v>
       </c>
@@ -2647,7 +2636,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -2661,7 +2650,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>122</v>
       </c>
@@ -2675,7 +2664,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>123</v>
       </c>
@@ -2689,7 +2678,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>124</v>
       </c>
@@ -2703,7 +2692,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>125</v>
       </c>
@@ -2717,7 +2706,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>126</v>
       </c>
@@ -2731,7 +2720,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>127</v>
       </c>
@@ -2745,7 +2734,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>128</v>
       </c>
@@ -2759,7 +2748,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>129</v>
       </c>
@@ -2773,7 +2762,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>130</v>
       </c>
@@ -2787,7 +2776,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>131</v>
       </c>
@@ -2801,7 +2790,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>826</v>
       </c>
@@ -2815,7 +2804,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>827</v>
       </c>
@@ -2829,7 +2818,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>829</v>
       </c>
@@ -2843,7 +2832,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>830</v>
       </c>
@@ -2857,7 +2846,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>900</v>
       </c>
@@ -2871,7 +2860,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>901</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>902</v>
       </c>
@@ -2899,7 +2888,7 @@
         <v>36150</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>903</v>
       </c>
@@ -2913,7 +2902,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>904</v>
       </c>
@@ -2927,7 +2916,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>905</v>
       </c>
@@ -2941,7 +2930,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>906</v>
       </c>
@@ -2955,7 +2944,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>907</v>
       </c>
@@ -2969,7 +2958,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>910</v>
       </c>
@@ -2983,7 +2972,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>911</v>
       </c>
@@ -2997,7 +2986,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>912</v>
       </c>
@@ -3011,7 +3000,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>913</v>
       </c>
@@ -3025,7 +3014,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>914</v>
       </c>
@@ -3039,7 +3028,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>603</v>
       </c>
@@ -3053,7 +3042,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>821</v>
       </c>
@@ -3067,7 +3056,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>822</v>
       </c>
@@ -3081,7 +3070,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>823</v>
       </c>
@@ -3095,7 +3084,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>824</v>
       </c>
@@ -3109,7 +3098,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>825</v>
       </c>
@@ -3123,7 +3112,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>828</v>
       </c>
@@ -3137,7 +3126,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>832</v>
       </c>
@@ -3151,7 +3140,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>880</v>
       </c>
@@ -3165,7 +3154,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>881</v>
       </c>
@@ -3179,7 +3168,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>403</v>
       </c>
@@ -3193,7 +3182,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>101</v>
       </c>
@@ -3207,7 +3196,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>102</v>
       </c>
@@ -3221,7 +3210,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>103</v>
       </c>
@@ -3235,7 +3224,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>104</v>
       </c>
@@ -3249,7 +3238,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>105</v>
       </c>
@@ -3263,7 +3252,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>106</v>
       </c>
@@ -3277,7 +3266,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>107</v>
       </c>
@@ -3291,7 +3280,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>386</v>
       </c>
@@ -3305,7 +3294,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>387</v>
       </c>
@@ -3319,7 +3308,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>388</v>
       </c>
@@ -3333,7 +3322,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>391</v>
       </c>
@@ -3347,7 +3336,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>400</v>
       </c>
@@ -3361,7 +3350,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>402</v>
       </c>
@@ -3388,14 +3377,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3412,7 +3401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3429,7 +3418,7 @@
         <v>0.59752899245919489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3446,7 +3435,7 @@
         <v>0.44167611120220812</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -3463,7 +3452,7 @@
         <v>0.65557817311674071</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3480,7 +3469,7 @@
         <v>0.49425207080654154</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3497,7 +3486,7 @@
         <v>0.59752899245919489</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3514,7 +3503,7 @@
         <v>0.44167611120220812</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3531,7 +3520,7 @@
         <v>0.65557817311674071</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3548,7 +3537,7 @@
         <v>0.49425207080654154</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3554,7 @@
         <v>0.59752899245919489</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -3582,7 +3571,7 @@
         <v>0.44167611120220812</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3599,7 +3588,7 @@
         <v>0.65557817311674071</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3616,7 +3605,7 @@
         <v>0.49425207080654154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3633,7 +3622,7 @@
         <v>0.59752899245919489</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3650,7 +3639,7 @@
         <v>0.44167611120220812</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -3667,7 +3656,7 @@
         <v>0.65557817311674071</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3697,12 +3686,12 @@
       <selection activeCell="B53" sqref="B53:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3724,7 +3713,7 @@
         <v>5056.1400000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3735,7 +3724,7 @@
         <v>5065.47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3746,7 +3735,7 @@
         <v>5056.1400000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3757,7 +3746,7 @@
         <v>5065.4799999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3768,7 +3757,7 @@
         <v>5067.8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3779,7 +3768,7 @@
         <v>5110.67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3790,7 +3779,7 @@
         <v>4990.62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3801,7 +3790,7 @@
         <v>5045.07</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3812,7 +3801,7 @@
         <v>5022.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3823,7 +3812,7 @@
         <v>5022.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3834,7 +3823,7 @@
         <v>5092.8900000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>120</v>
       </c>
@@ -3845,7 +3834,7 @@
         <v>5402.92</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -3856,7 +3845,7 @@
         <v>5092.9799999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>122</v>
       </c>
@@ -3867,7 +3856,7 @@
         <v>5406.44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>123</v>
       </c>
@@ -3878,7 +3867,7 @@
         <v>5498.96</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>124</v>
       </c>
@@ -3889,7 +3878,7 @@
         <v>5060.71</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>125</v>
       </c>
@@ -3900,7 +3889,7 @@
         <v>5360.29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>126</v>
       </c>
@@ -3911,7 +3900,7 @@
         <v>5047.3900000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>127</v>
       </c>
@@ -3922,7 +3911,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>128</v>
       </c>
@@ -3933,7 +3922,7 @@
         <v>5002.6099999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>129</v>
       </c>
@@ -3944,7 +3933,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>130</v>
       </c>
@@ -3955,7 +3944,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>131</v>
       </c>
@@ -3966,7 +3955,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>826</v>
       </c>
@@ -3977,7 +3966,7 @@
         <v>4598.55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>827</v>
       </c>
@@ -3988,7 +3977,7 @@
         <v>4627.6899999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>829</v>
       </c>
@@ -3999,7 +3988,7 @@
         <v>4675.01</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>830</v>
       </c>
@@ -4010,7 +3999,7 @@
         <v>4604.87</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>900</v>
       </c>
@@ -4021,7 +4010,7 @@
         <v>4949.4399999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>901</v>
       </c>
@@ -4032,7 +4021,7 @@
         <v>5651.19</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>902</v>
       </c>
@@ -4043,7 +4032,7 @@
         <v>5637.51</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>903</v>
       </c>
@@ -4054,7 +4043,7 @@
         <v>5647.9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>904</v>
       </c>
@@ -4065,7 +4054,7 @@
         <v>4214.37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>905</v>
       </c>
@@ -4076,7 +4065,7 @@
         <v>4124.37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>906</v>
       </c>
@@ -4087,7 +4076,7 @@
         <v>4445.13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>907</v>
       </c>
@@ -4098,7 +4087,7 @@
         <v>4426.3900000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>910</v>
       </c>
@@ -4109,7 +4098,7 @@
         <v>5726.23</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>911</v>
       </c>
@@ -4120,7 +4109,7 @@
         <v>5588.14</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>912</v>
       </c>
@@ -4131,7 +4120,7 @@
         <v>5562.96</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>913</v>
       </c>
@@ -4142,7 +4131,7 @@
         <v>4445.13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>914</v>
       </c>
@@ -4153,7 +4142,7 @@
         <v>4443.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>603</v>
       </c>
@@ -4164,7 +4153,7 @@
         <v>4374.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>821</v>
       </c>
@@ -4175,7 +4164,7 @@
         <v>7298.85</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>822</v>
       </c>
@@ -4186,7 +4175,7 @@
         <v>7285.79</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>823</v>
       </c>
@@ -4197,7 +4186,7 @@
         <v>7105.19</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>824</v>
       </c>
@@ -4208,7 +4197,7 @@
         <v>6198.53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>825</v>
       </c>
@@ -4219,7 +4208,7 @@
         <v>4549.7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>828</v>
       </c>
@@ -4230,7 +4219,7 @@
         <v>4502.9399999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>832</v>
       </c>
@@ -4241,7 +4230,7 @@
         <v>5882.22</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>880</v>
       </c>
@@ -4252,7 +4241,7 @@
         <v>4307.74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>881</v>
       </c>
@@ -4263,7 +4252,7 @@
         <v>4291.8500000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>403</v>
       </c>
@@ -4274,7 +4263,7 @@
         <v>5012.3999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>101</v>
       </c>
@@ -4285,7 +4274,7 @@
         <v>5217.1667878377657</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>102</v>
       </c>
@@ -4296,7 +4285,7 @@
         <v>4734.9364692043391</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>103</v>
       </c>
@@ -4307,7 +4296,7 @@
         <v>5234.4044015959998</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>104</v>
       </c>
@@ -4318,7 +4307,7 @@
         <v>4976.7806834997064</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>105</v>
       </c>
@@ -4329,7 +4318,7 @@
         <v>4755.1407146056081</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>106</v>
       </c>
@@ -4340,7 +4329,7 @@
         <v>4729.9559371305904</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>107</v>
       </c>
@@ -4351,7 +4340,7 @@
         <v>4638.7922838375043</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>386</v>
       </c>
@@ -4362,7 +4351,7 @@
         <v>4820.0669470149051</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>387</v>
       </c>
@@ -4373,7 +4362,7 @@
         <v>4898.2542637245051</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>388</v>
       </c>
@@ -4384,7 +4373,7 @@
         <v>4633.757995743541</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>391</v>
       </c>
@@ -4395,7 +4384,7 @@
         <v>5349.9971722101545</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>400</v>
       </c>
@@ -4406,7 +4395,7 @@
         <v>5342.6282114006908</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>402</v>
       </c>
@@ -4417,7 +4406,7 @@
         <v>4763.963261738887</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C66" s="9"/>
     </row>
   </sheetData>
@@ -4433,13 +4422,13 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -4447,7 +4436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -4455,7 +4444,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4463,7 +4452,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4471,7 +4460,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4492,12 +4481,12 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -4505,7 +4494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -4513,7 +4502,7 @@
         <v>15438</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4521,7 +4510,7 @@
         <v>12665</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4529,7 +4518,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -4550,12 +4539,12 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -4575,7 +4564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -4595,7 +4584,7 @@
         <v>33.520000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -4615,7 +4604,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -4635,7 +4624,7 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -4655,7 +4644,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -4675,7 +4664,7 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4695,7 +4684,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -4715,7 +4704,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -4735,7 +4724,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4755,7 +4744,7 @@
         <v>100.56</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4775,7 +4764,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -4795,7 +4784,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -4815,7 +4804,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4835,7 +4824,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -4855,7 +4844,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -4875,7 +4864,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -4895,7 +4884,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4915,7 +4904,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -4935,7 +4924,7 @@
         <v>113.96</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -4955,7 +4944,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -4975,7 +4964,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -4995,7 +4984,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -5015,7 +5004,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -5035,7 +5024,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -5055,7 +5044,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -5075,7 +5064,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -5095,7 +5084,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -5115,7 +5104,7 @@
         <v>113.96</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -5135,7 +5124,7 @@
         <v>46.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -5155,7 +5144,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -5175,7 +5164,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -5215,7 +5204,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -5235,7 +5224,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -5255,7 +5244,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5275,7 +5264,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5295,7 +5284,7 @@
         <v>113.96</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>94</v>
       </c>
@@ -5315,7 +5304,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5335,7 +5324,7 @@
         <v>51.12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -5355,7 +5344,7 @@
         <v>50.28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -5375,7 +5364,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -5395,7 +5384,7 @@
         <v>62.85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -5415,7 +5404,7 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -5435,7 +5424,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -5455,7 +5444,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -5475,7 +5464,7 @@
         <v>100.56</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -5495,7 +5484,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -5515,7 +5504,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -5535,7 +5524,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -5555,7 +5544,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -5575,7 +5564,7 @@
         <v>71.22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -5595,7 +5584,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -5615,7 +5604,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -5635,7 +5624,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -5655,7 +5644,7 @@
         <v>113.96</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -5675,7 +5664,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5695,7 +5684,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -5715,7 +5704,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -5735,7 +5724,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -5755,7 +5744,7 @@
         <v>71.22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -5775,7 +5764,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -5795,7 +5784,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -5815,7 +5804,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -5835,7 +5824,7 @@
         <v>113.96</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -5855,7 +5844,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>122</v>
       </c>
@@ -5875,7 +5864,7 @@
         <v>57.93</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -5895,7 +5884,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -5915,7 +5904,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -5935,7 +5924,7 @@
         <v>71.22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -5955,7 +5944,7 @@
         <v>75.97</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -5975,7 +5964,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -5995,7 +5984,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -6028,12 +6017,12 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6044,7 +6033,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6044,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6066,7 +6055,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6077,7 +6066,7 @@
         <v>5.79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
